--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Thbs1-Sdc1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Thbs1-Sdc1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.18897966666667</v>
+        <v>34.70905366666667</v>
       </c>
       <c r="H2">
-        <v>45.566939</v>
+        <v>104.127161</v>
       </c>
       <c r="I2">
-        <v>0.01327029680642083</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="J2">
-        <v>0.01327029680642082</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.377875666666666</v>
+        <v>1.410521</v>
       </c>
       <c r="N2">
-        <v>4.133627</v>
+        <v>4.231563</v>
       </c>
       <c r="O2">
-        <v>0.04981894710555809</v>
+        <v>0.05318779639358549</v>
       </c>
       <c r="P2">
-        <v>0.04981894710555809</v>
+        <v>0.05318779639358549</v>
       </c>
       <c r="Q2">
-        <v>20.92852548419478</v>
+        <v>48.95784908696034</v>
       </c>
       <c r="R2">
-        <v>188.356729357753</v>
+        <v>440.620641782643</v>
       </c>
       <c r="S2">
-        <v>0.0006611122146741355</v>
+        <v>0.0008609071382356961</v>
       </c>
       <c r="T2">
-        <v>0.0006611122146741354</v>
+        <v>0.000860907138235696</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.18897966666667</v>
+        <v>34.70905366666667</v>
       </c>
       <c r="H3">
-        <v>45.566939</v>
+        <v>104.127161</v>
       </c>
       <c r="I3">
-        <v>0.01327029680642083</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="J3">
-        <v>0.01327029680642082</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>36.503158</v>
       </c>
       <c r="O3">
-        <v>0.4399402504357141</v>
+        <v>0.4588192437231541</v>
       </c>
       <c r="P3">
-        <v>0.4399402504357141</v>
+        <v>0.4588192437231541</v>
       </c>
       <c r="Q3">
-        <v>184.8152415437069</v>
+        <v>422.3300233416042</v>
       </c>
       <c r="R3">
-        <v>1663.337173893362</v>
+        <v>3800.970210074438</v>
       </c>
       <c r="S3">
-        <v>0.005838137700373034</v>
+        <v>0.007426529934765346</v>
       </c>
       <c r="T3">
-        <v>0.005838137700373034</v>
+        <v>0.007426529934765346</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.18897966666667</v>
+        <v>34.70905366666667</v>
       </c>
       <c r="H4">
-        <v>45.566939</v>
+        <v>104.127161</v>
       </c>
       <c r="I4">
-        <v>0.01327029680642083</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="J4">
-        <v>0.01327029680642082</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.451737666666667</v>
+        <v>4.305489000000001</v>
       </c>
       <c r="N4">
-        <v>7.355213</v>
+        <v>12.916467</v>
       </c>
       <c r="O4">
-        <v>0.08864587138537494</v>
+        <v>0.1623509840029479</v>
       </c>
       <c r="P4">
-        <v>0.08864587138537493</v>
+        <v>0.1623509840029479</v>
       </c>
       <c r="Q4">
-        <v>37.23939356700078</v>
+        <v>149.439448762243</v>
       </c>
       <c r="R4">
-        <v>335.154542103007</v>
+        <v>1344.955038860187</v>
       </c>
       <c r="S4">
-        <v>0.001176357023947732</v>
+        <v>0.002627841920606124</v>
       </c>
       <c r="T4">
-        <v>0.001176357023947732</v>
+        <v>0.002627841920606123</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.18897966666667</v>
+        <v>34.70905366666667</v>
       </c>
       <c r="H5">
-        <v>45.566939</v>
+        <v>104.127161</v>
       </c>
       <c r="I5">
-        <v>0.01327029680642083</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="J5">
-        <v>0.01327029680642082</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.939698</v>
+        <v>6.304742</v>
       </c>
       <c r="N5">
-        <v>29.819094</v>
+        <v>18.914226</v>
       </c>
       <c r="O5">
-        <v>0.3593831438399412</v>
+        <v>0.2377386326116995</v>
       </c>
       <c r="P5">
-        <v>0.3593831438399412</v>
+        <v>0.2377386326116995</v>
       </c>
       <c r="Q5">
-        <v>150.9738708148073</v>
+        <v>218.8316284324873</v>
       </c>
       <c r="R5">
-        <v>1358.764837333266</v>
+        <v>1969.484655892386</v>
       </c>
       <c r="S5">
-        <v>0.004769120985980648</v>
+        <v>0.003848079817694596</v>
       </c>
       <c r="T5">
-        <v>0.004769120985980647</v>
+        <v>0.003848079817694596</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.18897966666667</v>
+        <v>34.70905366666667</v>
       </c>
       <c r="H6">
-        <v>45.566939</v>
+        <v>104.127161</v>
       </c>
       <c r="I6">
-        <v>0.01327029680642083</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="J6">
-        <v>0.01327029680642082</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.8153446666666667</v>
+        <v>0.5130036666666666</v>
       </c>
       <c r="N6">
-        <v>2.446034</v>
+        <v>1.539011</v>
       </c>
       <c r="O6">
-        <v>0.02947988254973095</v>
+        <v>0.01934429517308106</v>
       </c>
       <c r="P6">
-        <v>0.02947988254973094</v>
+        <v>0.01934429517308106</v>
       </c>
       <c r="Q6">
-        <v>12.38425356332511</v>
+        <v>17.80587179753011</v>
       </c>
       <c r="R6">
-        <v>111.458282069926</v>
+        <v>160.252846177771</v>
       </c>
       <c r="S6">
-        <v>0.0003912067912533556</v>
+        <v>0.0003131102043673358</v>
       </c>
       <c r="T6">
-        <v>0.0003912067912533555</v>
+        <v>0.0003131102043673358</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15.18897966666667</v>
+        <v>34.70905366666667</v>
       </c>
       <c r="H7">
-        <v>45.566939</v>
+        <v>104.127161</v>
       </c>
       <c r="I7">
-        <v>0.01327029680642083</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="J7">
-        <v>0.01327029680642082</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.905288</v>
+        <v>1.818161</v>
       </c>
       <c r="N7">
-        <v>2.715864</v>
+        <v>5.454483</v>
       </c>
       <c r="O7">
-        <v>0.0327319046836808</v>
+        <v>0.06855904809553193</v>
       </c>
       <c r="P7">
-        <v>0.0327319046836808</v>
+        <v>0.06855904809553193</v>
       </c>
       <c r="Q7">
-        <v>13.75040102447733</v>
+        <v>63.10664772364034</v>
       </c>
       <c r="R7">
-        <v>123.753609220296</v>
+        <v>567.959829512763</v>
       </c>
       <c r="S7">
-        <v>0.0004343620901919202</v>
+        <v>0.001109708953898419</v>
       </c>
       <c r="T7">
-        <v>0.0004343620901919201</v>
+        <v>0.001109708953898419</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>286.50943</v>
       </c>
       <c r="I8">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="J8">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.377875666666666</v>
+        <v>1.410521</v>
       </c>
       <c r="N8">
-        <v>4.133627</v>
+        <v>4.231563</v>
       </c>
       <c r="O8">
-        <v>0.04981894710555809</v>
+        <v>0.05318779639358549</v>
       </c>
       <c r="P8">
-        <v>0.04981894710555809</v>
+        <v>0.05318779639358549</v>
       </c>
       <c r="Q8">
-        <v>131.5914572891789</v>
+        <v>134.7091892376767</v>
       </c>
       <c r="R8">
-        <v>1184.32311560261</v>
+        <v>1212.38270313909</v>
       </c>
       <c r="S8">
-        <v>0.004156848977551996</v>
+        <v>0.002368815312835048</v>
       </c>
       <c r="T8">
-        <v>0.004156848977551996</v>
+        <v>0.002368815312835048</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>286.50943</v>
       </c>
       <c r="I9">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="J9">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>36.503158</v>
       </c>
       <c r="O9">
-        <v>0.4399402504357141</v>
+        <v>0.4588192437231541</v>
       </c>
       <c r="P9">
-        <v>0.4399402504357141</v>
+        <v>0.4588192437231541</v>
       </c>
       <c r="Q9">
         <v>1162.055443531104</v>
@@ -1013,10 +1013,10 @@
         <v>10458.49899177994</v>
       </c>
       <c r="S9">
-        <v>0.03670822621627906</v>
+        <v>0.02043435005865142</v>
       </c>
       <c r="T9">
-        <v>0.03670822621627907</v>
+        <v>0.02043435005865142</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>286.50943</v>
       </c>
       <c r="I10">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="J10">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.451737666666667</v>
+        <v>4.305489000000001</v>
       </c>
       <c r="N10">
-        <v>7.355213</v>
+        <v>12.916467</v>
       </c>
       <c r="O10">
-        <v>0.08864587138537494</v>
+        <v>0.1623509840029479</v>
       </c>
       <c r="P10">
-        <v>0.08864587138537493</v>
+        <v>0.1623509840029479</v>
       </c>
       <c r="Q10">
-        <v>234.1486537953989</v>
+        <v>411.1877330870901</v>
       </c>
       <c r="R10">
-        <v>2107.33788415859</v>
+        <v>3700.68959778381</v>
       </c>
       <c r="S10">
-        <v>0.007396533271803953</v>
+        <v>0.007230596547263645</v>
       </c>
       <c r="T10">
-        <v>0.007396533271803951</v>
+        <v>0.007230596547263644</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>286.50943</v>
       </c>
       <c r="I11">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="J11">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.939698</v>
+        <v>6.304742</v>
       </c>
       <c r="N11">
-        <v>29.819094</v>
+        <v>18.914226</v>
       </c>
       <c r="O11">
-        <v>0.3593831438399412</v>
+        <v>0.2377386326116995</v>
       </c>
       <c r="P11">
-        <v>0.3593831438399412</v>
+        <v>0.2377386326116995</v>
       </c>
       <c r="Q11">
-        <v>949.2724027840468</v>
+        <v>602.1226789056867</v>
       </c>
       <c r="R11">
-        <v>8543.451625056421</v>
+        <v>5419.10411015118</v>
       </c>
       <c r="S11">
-        <v>0.02998661233958141</v>
+        <v>0.01058812268167172</v>
       </c>
       <c r="T11">
-        <v>0.02998661233958141</v>
+        <v>0.01058812268167171</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>286.50943</v>
       </c>
       <c r="I12">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="J12">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.8153446666666667</v>
+        <v>0.5130036666666666</v>
       </c>
       <c r="N12">
-        <v>2.446034</v>
+        <v>1.539011</v>
       </c>
       <c r="O12">
-        <v>0.02947988254973095</v>
+        <v>0.01934429517308106</v>
       </c>
       <c r="P12">
-        <v>0.02947988254973094</v>
+        <v>0.01934429517308106</v>
       </c>
       <c r="Q12">
-        <v>77.86797856673557</v>
+        <v>48.99346270819223</v>
       </c>
       <c r="R12">
-        <v>700.8118071006201</v>
+        <v>440.94116437373</v>
       </c>
       <c r="S12">
-        <v>0.002459775381754915</v>
+        <v>0.0008615333916620362</v>
       </c>
       <c r="T12">
-        <v>0.002459775381754914</v>
+        <v>0.0008615333916620362</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,40 +1231,40 @@
         <v>286.50943</v>
       </c>
       <c r="I13">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="J13">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.905288</v>
+        <v>1.818161</v>
       </c>
       <c r="N13">
-        <v>2.715864</v>
+        <v>5.454483</v>
       </c>
       <c r="O13">
-        <v>0.0327319046836808</v>
+        <v>0.06855904809553193</v>
       </c>
       <c r="P13">
-        <v>0.0327319046836808</v>
+        <v>0.06855904809553193</v>
       </c>
       <c r="Q13">
-        <v>86.45784962194668</v>
+        <v>173.6400905860767</v>
       </c>
       <c r="R13">
-        <v>778.12064659752</v>
+        <v>1562.76081527469</v>
       </c>
       <c r="S13">
-        <v>0.002731121238459657</v>
+        <v>0.003053401982671286</v>
       </c>
       <c r="T13">
-        <v>0.002731121238459657</v>
+        <v>0.003053401982671286</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>402.0913113333333</v>
+        <v>1028.132161333333</v>
       </c>
       <c r="H14">
-        <v>1206.273934</v>
+        <v>3084.396484</v>
       </c>
       <c r="I14">
-        <v>0.3512988470441011</v>
+        <v>0.4794579045397415</v>
       </c>
       <c r="J14">
-        <v>0.351298847044101</v>
+        <v>0.4794579045397416</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.377875666666666</v>
+        <v>1.410521</v>
       </c>
       <c r="N14">
-        <v>4.133627</v>
+        <v>4.231563</v>
       </c>
       <c r="O14">
-        <v>0.04981894710555809</v>
+        <v>0.05318779639358549</v>
       </c>
       <c r="P14">
-        <v>0.04981894710555809</v>
+        <v>0.05318779639358549</v>
       </c>
       <c r="Q14">
-        <v>554.0318336642907</v>
+        <v>1450.202004336054</v>
       </c>
       <c r="R14">
-        <v>4986.286502978617</v>
+        <v>13051.81803902449</v>
       </c>
       <c r="S14">
-        <v>0.01750133867913361</v>
+        <v>0.02550130940595492</v>
       </c>
       <c r="T14">
-        <v>0.01750133867913361</v>
+        <v>0.02550130940595492</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>402.0913113333333</v>
+        <v>1028.132161333333</v>
       </c>
       <c r="H15">
-        <v>1206.273934</v>
+        <v>3084.396484</v>
       </c>
       <c r="I15">
-        <v>0.3512988470441011</v>
+        <v>0.4794579045397415</v>
       </c>
       <c r="J15">
-        <v>0.351298847044101</v>
+        <v>0.4794579045397416</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>36.503158</v>
       </c>
       <c r="O15">
-        <v>0.4399402504357141</v>
+        <v>0.4588192437231541</v>
       </c>
       <c r="P15">
-        <v>0.4399402504357141</v>
+        <v>0.4588192437231541</v>
       </c>
       <c r="Q15">
-        <v>4892.534222675951</v>
+        <v>12510.02357667738</v>
       </c>
       <c r="R15">
-        <v>44032.80800408356</v>
+        <v>112590.2121900965</v>
       </c>
       <c r="S15">
-        <v>0.1545505027463594</v>
+        <v>0.2199845131580124</v>
       </c>
       <c r="T15">
-        <v>0.1545505027463594</v>
+        <v>0.2199845131580125</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>402.0913113333333</v>
+        <v>1028.132161333333</v>
       </c>
       <c r="H16">
-        <v>1206.273934</v>
+        <v>3084.396484</v>
       </c>
       <c r="I16">
-        <v>0.3512988470441011</v>
+        <v>0.4794579045397415</v>
       </c>
       <c r="J16">
-        <v>0.351298847044101</v>
+        <v>0.4794579045397416</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.451737666666667</v>
+        <v>4.305489000000001</v>
       </c>
       <c r="N16">
-        <v>7.355213</v>
+        <v>12.916467</v>
       </c>
       <c r="O16">
-        <v>0.08864587138537494</v>
+        <v>0.1623509840029479</v>
       </c>
       <c r="P16">
-        <v>0.08864587138537493</v>
+        <v>0.1623509840029479</v>
       </c>
       <c r="Q16">
-        <v>985.8224134353269</v>
+        <v>4426.611711166892</v>
       </c>
       <c r="R16">
-        <v>8872.40172091794</v>
+        <v>39839.50540050203</v>
       </c>
       <c r="S16">
-        <v>0.03114119241290189</v>
+        <v>0.07784046259001849</v>
       </c>
       <c r="T16">
-        <v>0.03114119241290188</v>
+        <v>0.07784046259001849</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>402.0913113333333</v>
+        <v>1028.132161333333</v>
       </c>
       <c r="H17">
-        <v>1206.273934</v>
+        <v>3084.396484</v>
       </c>
       <c r="I17">
-        <v>0.3512988470441011</v>
+        <v>0.4794579045397415</v>
       </c>
       <c r="J17">
-        <v>0.351298847044101</v>
+        <v>0.4794579045397416</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>9.939698</v>
+        <v>6.304742</v>
       </c>
       <c r="N17">
-        <v>29.819094</v>
+        <v>18.914226</v>
       </c>
       <c r="O17">
-        <v>0.3593831438399412</v>
+        <v>0.2377386326116995</v>
       </c>
       <c r="P17">
-        <v>0.3593831438399412</v>
+        <v>0.2377386326116995</v>
       </c>
       <c r="Q17">
-        <v>3996.66620307731</v>
+        <v>6482.108019109042</v>
       </c>
       <c r="R17">
-        <v>35969.99582769579</v>
+        <v>58338.97217198138</v>
       </c>
       <c r="S17">
-        <v>0.1262508840780557</v>
+        <v>0.1139856666201489</v>
       </c>
       <c r="T17">
-        <v>0.1262508840780557</v>
+        <v>0.1139856666201489</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>402.0913113333333</v>
+        <v>1028.132161333333</v>
       </c>
       <c r="H18">
-        <v>1206.273934</v>
+        <v>3084.396484</v>
       </c>
       <c r="I18">
-        <v>0.3512988470441011</v>
+        <v>0.4794579045397415</v>
       </c>
       <c r="J18">
-        <v>0.351298847044101</v>
+        <v>0.4794579045397416</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.8153446666666667</v>
+        <v>0.5130036666666666</v>
       </c>
       <c r="N18">
-        <v>2.446034</v>
+        <v>1.539011</v>
       </c>
       <c r="O18">
-        <v>0.02947988254973095</v>
+        <v>0.01934429517308106</v>
       </c>
       <c r="P18">
-        <v>0.02947988254973094</v>
+        <v>0.01934429517308106</v>
       </c>
       <c r="Q18">
-        <v>327.8430062086396</v>
+        <v>527.4355685819248</v>
       </c>
       <c r="R18">
-        <v>2950.587055877756</v>
+        <v>4746.920117237323</v>
       </c>
       <c r="S18">
-        <v>0.010356248750716</v>
+        <v>0.009274775228483679</v>
       </c>
       <c r="T18">
-        <v>0.01035624875071599</v>
+        <v>0.009274775228483681</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>402.0913113333333</v>
+        <v>1028.132161333333</v>
       </c>
       <c r="H19">
-        <v>1206.273934</v>
+        <v>3084.396484</v>
       </c>
       <c r="I19">
-        <v>0.3512988470441011</v>
+        <v>0.4794579045397415</v>
       </c>
       <c r="J19">
-        <v>0.351298847044101</v>
+        <v>0.4794579045397416</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.905288</v>
+        <v>1.818161</v>
       </c>
       <c r="N19">
-        <v>2.715864</v>
+        <v>5.454483</v>
       </c>
       <c r="O19">
-        <v>0.0327319046836808</v>
+        <v>0.06855904809553193</v>
       </c>
       <c r="P19">
-        <v>0.0327319046836808</v>
+        <v>0.06855904809553193</v>
       </c>
       <c r="Q19">
-        <v>364.0084390543306</v>
+        <v>1869.309798581974</v>
       </c>
       <c r="R19">
-        <v>3276.075951488976</v>
+        <v>16823.78818723777</v>
       </c>
       <c r="S19">
-        <v>0.01149868037693448</v>
+        <v>0.03287117753712309</v>
       </c>
       <c r="T19">
-        <v>0.01149868037693448</v>
+        <v>0.0328711775371231</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>37.14495166666666</v>
+        <v>47.840114</v>
       </c>
       <c r="H20">
-        <v>111.434855</v>
+        <v>143.520342</v>
       </c>
       <c r="I20">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="J20">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.377875666666666</v>
+        <v>1.410521</v>
       </c>
       <c r="N20">
-        <v>4.133627</v>
+        <v>4.231563</v>
       </c>
       <c r="O20">
-        <v>0.04981894710555809</v>
+        <v>0.05318779639358549</v>
       </c>
       <c r="P20">
-        <v>0.04981894710555809</v>
+        <v>0.05318779639358549</v>
       </c>
       <c r="Q20">
-        <v>51.18112504100944</v>
+        <v>67.479485439394</v>
       </c>
       <c r="R20">
-        <v>460.630125369085</v>
+        <v>607.3153689545459</v>
       </c>
       <c r="S20">
-        <v>0.001616763061063662</v>
+        <v>0.001186603819053785</v>
       </c>
       <c r="T20">
-        <v>0.001616763061063662</v>
+        <v>0.001186603819053785</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>37.14495166666666</v>
+        <v>47.840114</v>
       </c>
       <c r="H21">
-        <v>111.434855</v>
+        <v>143.520342</v>
       </c>
       <c r="I21">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="J21">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>36.503158</v>
       </c>
       <c r="O21">
-        <v>0.4399402504357141</v>
+        <v>0.4588192437231541</v>
       </c>
       <c r="P21">
-        <v>0.4399402504357141</v>
+        <v>0.4588192437231541</v>
       </c>
       <c r="Q21">
-        <v>451.9693465302321</v>
+        <v>582.1050800266706</v>
       </c>
       <c r="R21">
-        <v>4067.72411877209</v>
+        <v>5238.945720240036</v>
       </c>
       <c r="S21">
-        <v>0.01427728178342422</v>
+        <v>0.01023612000821534</v>
       </c>
       <c r="T21">
-        <v>0.01427728178342422</v>
+        <v>0.01023612000821534</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>37.14495166666666</v>
+        <v>47.840114</v>
       </c>
       <c r="H22">
-        <v>111.434855</v>
+        <v>143.520342</v>
       </c>
       <c r="I22">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="J22">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.451737666666667</v>
+        <v>4.305489000000001</v>
       </c>
       <c r="N22">
-        <v>7.355213</v>
+        <v>12.916467</v>
       </c>
       <c r="O22">
-        <v>0.08864587138537494</v>
+        <v>0.1623509840029479</v>
       </c>
       <c r="P22">
-        <v>0.08864587138537493</v>
+        <v>0.1623509840029479</v>
       </c>
       <c r="Q22">
-        <v>91.06967712767944</v>
+        <v>205.975084585746</v>
       </c>
       <c r="R22">
-        <v>819.627094149115</v>
+        <v>1853.775761271714</v>
       </c>
       <c r="S22">
-        <v>0.002876804483001307</v>
+        <v>0.003622001863349829</v>
       </c>
       <c r="T22">
-        <v>0.002876804483001306</v>
+        <v>0.003622001863349828</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>37.14495166666666</v>
+        <v>47.840114</v>
       </c>
       <c r="H23">
-        <v>111.434855</v>
+        <v>143.520342</v>
       </c>
       <c r="I23">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="J23">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>9.939698</v>
+        <v>6.304742</v>
       </c>
       <c r="N23">
-        <v>29.819094</v>
+        <v>18.914226</v>
       </c>
       <c r="O23">
-        <v>0.3593831438399412</v>
+        <v>0.2377386326116995</v>
       </c>
       <c r="P23">
-        <v>0.3593831438399412</v>
+        <v>0.2377386326116995</v>
       </c>
       <c r="Q23">
-        <v>369.2096017912633</v>
+        <v>301.619576020588</v>
       </c>
       <c r="R23">
-        <v>3322.88641612137</v>
+        <v>2714.576184185292</v>
       </c>
       <c r="S23">
-        <v>0.01166298016090593</v>
+        <v>0.005303877741167129</v>
       </c>
       <c r="T23">
-        <v>0.01166298016090593</v>
+        <v>0.005303877741167129</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>37.14495166666666</v>
+        <v>47.840114</v>
       </c>
       <c r="H24">
-        <v>111.434855</v>
+        <v>143.520342</v>
       </c>
       <c r="I24">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="J24">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.8153446666666667</v>
+        <v>0.5130036666666666</v>
       </c>
       <c r="N24">
-        <v>2.446034</v>
+        <v>1.539011</v>
       </c>
       <c r="O24">
-        <v>0.02947988254973095</v>
+        <v>0.01934429517308106</v>
       </c>
       <c r="P24">
-        <v>0.02947988254973094</v>
+        <v>0.01934429517308106</v>
       </c>
       <c r="Q24">
-        <v>30.28593823500778</v>
+        <v>24.54215389575133</v>
       </c>
       <c r="R24">
-        <v>272.57344411507</v>
+        <v>220.879385061762</v>
       </c>
       <c r="S24">
-        <v>0.0009567039835248303</v>
+        <v>0.0004315654357895144</v>
       </c>
       <c r="T24">
-        <v>0.0009567039835248302</v>
+        <v>0.0004315654357895144</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>37.14495166666666</v>
+        <v>47.840114</v>
       </c>
       <c r="H25">
-        <v>111.434855</v>
+        <v>143.520342</v>
       </c>
       <c r="I25">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="J25">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.905288</v>
+        <v>1.818161</v>
       </c>
       <c r="N25">
-        <v>2.715864</v>
+        <v>5.454483</v>
       </c>
       <c r="O25">
-        <v>0.0327319046836808</v>
+        <v>0.06855904809553193</v>
       </c>
       <c r="P25">
-        <v>0.0327319046836808</v>
+        <v>0.06855904809553193</v>
       </c>
       <c r="Q25">
-        <v>33.62687900441333</v>
+        <v>86.98102951035399</v>
       </c>
       <c r="R25">
-        <v>302.64191103972</v>
+        <v>782.8292655931859</v>
       </c>
       <c r="S25">
-        <v>0.001062241124821519</v>
+        <v>0.001529531844087858</v>
       </c>
       <c r="T25">
-        <v>0.001062241124821519</v>
+        <v>0.001529531844087858</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>402.444082</v>
+        <v>428.234253</v>
       </c>
       <c r="H26">
-        <v>1207.332246</v>
+        <v>1284.702759</v>
       </c>
       <c r="I26">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="J26">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.377875666666666</v>
+        <v>1.410521</v>
       </c>
       <c r="N26">
-        <v>4.133627</v>
+        <v>4.231563</v>
       </c>
       <c r="O26">
-        <v>0.04981894710555809</v>
+        <v>0.05318779639358549</v>
       </c>
       <c r="P26">
-        <v>0.04981894710555809</v>
+        <v>0.05318779639358549</v>
       </c>
       <c r="Q26">
-        <v>554.5179077818045</v>
+        <v>604.033406775813</v>
       </c>
       <c r="R26">
-        <v>4990.661170036242</v>
+        <v>5436.300660982316</v>
       </c>
       <c r="S26">
-        <v>0.01751669329819495</v>
+        <v>0.01062172218192133</v>
       </c>
       <c r="T26">
-        <v>0.01751669329819495</v>
+        <v>0.01062172218192132</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>402.444082</v>
+        <v>428.234253</v>
       </c>
       <c r="H27">
-        <v>1207.332246</v>
+        <v>1284.702759</v>
       </c>
       <c r="I27">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="J27">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>36.503158</v>
       </c>
       <c r="O27">
-        <v>0.4399402504357141</v>
+        <v>0.4588192437231541</v>
       </c>
       <c r="P27">
-        <v>0.4399402504357141</v>
+        <v>0.4588192437231541</v>
       </c>
       <c r="Q27">
-        <v>4896.826637136985</v>
+        <v>5210.634199423658</v>
       </c>
       <c r="R27">
-        <v>44071.43973423287</v>
+        <v>46895.70779481292</v>
       </c>
       <c r="S27">
-        <v>0.1546860960366166</v>
+        <v>0.09162723160184046</v>
       </c>
       <c r="T27">
-        <v>0.1546860960366166</v>
+        <v>0.09162723160184046</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>402.444082</v>
+        <v>428.234253</v>
       </c>
       <c r="H28">
-        <v>1207.332246</v>
+        <v>1284.702759</v>
       </c>
       <c r="I28">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="J28">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>2.451737666666667</v>
+        <v>4.305489000000001</v>
       </c>
       <c r="N28">
-        <v>7.355213</v>
+        <v>12.916467</v>
       </c>
       <c r="O28">
-        <v>0.08864587138537494</v>
+        <v>0.1623509840029479</v>
       </c>
       <c r="P28">
-        <v>0.08864587138537493</v>
+        <v>0.1623509840029479</v>
       </c>
       <c r="Q28">
-        <v>986.6873145664887</v>
+        <v>1843.757865714717</v>
       </c>
       <c r="R28">
-        <v>8880.185831098397</v>
+        <v>16593.82079143246</v>
       </c>
       <c r="S28">
-        <v>0.03116851381701745</v>
+        <v>0.03242185548128548</v>
       </c>
       <c r="T28">
-        <v>0.03116851381701745</v>
+        <v>0.03242185548128547</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>402.444082</v>
+        <v>428.234253</v>
       </c>
       <c r="H29">
-        <v>1207.332246</v>
+        <v>1284.702759</v>
       </c>
       <c r="I29">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="J29">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>9.939698</v>
+        <v>6.304742</v>
       </c>
       <c r="N29">
-        <v>29.819094</v>
+        <v>18.914226</v>
       </c>
       <c r="O29">
-        <v>0.3593831438399412</v>
+        <v>0.2377386326116995</v>
       </c>
       <c r="P29">
-        <v>0.3593831438399412</v>
+        <v>0.2377386326116995</v>
       </c>
       <c r="Q29">
-        <v>4000.172636967236</v>
+        <v>2699.906480727726</v>
       </c>
       <c r="R29">
-        <v>36001.55373270512</v>
+        <v>24299.15832654953</v>
       </c>
       <c r="S29">
-        <v>0.1263616489896271</v>
+        <v>0.04747693792059177</v>
       </c>
       <c r="T29">
-        <v>0.1263616489896271</v>
+        <v>0.04747693792059176</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>402.444082</v>
+        <v>428.234253</v>
       </c>
       <c r="H30">
-        <v>1207.332246</v>
+        <v>1284.702759</v>
       </c>
       <c r="I30">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="J30">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.8153446666666667</v>
+        <v>0.5130036666666666</v>
       </c>
       <c r="N30">
-        <v>2.446034</v>
+        <v>1.539011</v>
       </c>
       <c r="O30">
-        <v>0.02947988254973095</v>
+        <v>0.01934429517308106</v>
       </c>
       <c r="P30">
-        <v>0.02947988254973094</v>
+        <v>0.01934429517308106</v>
       </c>
       <c r="Q30">
-        <v>328.1306358902627</v>
+        <v>219.685741981261</v>
       </c>
       <c r="R30">
-        <v>2953.175723012364</v>
+        <v>1977.171677831349</v>
       </c>
       <c r="S30">
-        <v>0.01036533469879043</v>
+        <v>0.003863099114185685</v>
       </c>
       <c r="T30">
-        <v>0.01036533469879043</v>
+        <v>0.003863099114185685</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,46 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>402.444082</v>
+        <v>428.234253</v>
       </c>
       <c r="H31">
-        <v>1207.332246</v>
+        <v>1284.702759</v>
       </c>
       <c r="I31">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="J31">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L31">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M31">
-        <v>0.905288</v>
+        <v>1.818161</v>
       </c>
       <c r="N31">
-        <v>2.715864</v>
+        <v>5.454483</v>
       </c>
       <c r="O31">
-        <v>0.0327319046836808</v>
+        <v>0.06855904809553193</v>
       </c>
       <c r="P31">
-        <v>0.0327319046836808</v>
+        <v>0.06855904809553193</v>
       </c>
       <c r="Q31">
-        <v>364.327798105616</v>
+        <v>778.598817668733</v>
       </c>
       <c r="R31">
-        <v>3278.950182950543</v>
+        <v>7007.389359018597</v>
       </c>
       <c r="S31">
-        <v>0.01150876862561836</v>
+        <v>0.01369139560772527</v>
       </c>
       <c r="T31">
-        <v>0.01150876862561836</v>
+        <v>0.01369139560772527</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>192.2123056666667</v>
+        <v>509.945048</v>
       </c>
       <c r="H32">
-        <v>576.6369169999999</v>
+        <v>1529.835144</v>
       </c>
       <c r="I32">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="J32">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.377875666666666</v>
+        <v>1.410521</v>
       </c>
       <c r="N32">
-        <v>4.133627</v>
+        <v>4.231563</v>
       </c>
       <c r="O32">
-        <v>0.04981894710555809</v>
+        <v>0.05318779639358549</v>
       </c>
       <c r="P32">
-        <v>0.04981894710555809</v>
+        <v>0.05318779639358549</v>
       </c>
       <c r="Q32">
-        <v>264.8446588119954</v>
+        <v>719.288199050008</v>
       </c>
       <c r="R32">
-        <v>2383.601929307958</v>
+        <v>6473.593791450072</v>
       </c>
       <c r="S32">
-        <v>0.008366190874939738</v>
+        <v>0.01264843853558472</v>
       </c>
       <c r="T32">
-        <v>0.008366190874939736</v>
+        <v>0.01264843853558472</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>192.2123056666667</v>
+        <v>509.945048</v>
       </c>
       <c r="H33">
-        <v>576.6369169999999</v>
+        <v>1529.835144</v>
       </c>
       <c r="I33">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="J33">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>36.503158</v>
       </c>
       <c r="O33">
-        <v>0.4399402504357141</v>
+        <v>0.4588192437231541</v>
       </c>
       <c r="P33">
-        <v>0.4399402504357141</v>
+        <v>0.4588192437231541</v>
       </c>
       <c r="Q33">
-        <v>2338.785387764876</v>
+        <v>6204.868219487194</v>
       </c>
       <c r="R33">
-        <v>21049.06848988388</v>
+        <v>55843.81397538476</v>
       </c>
       <c r="S33">
-        <v>0.07388000595266178</v>
+        <v>0.1091104989616691</v>
       </c>
       <c r="T33">
-        <v>0.07388000595266177</v>
+        <v>0.1091104989616691</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>192.2123056666667</v>
+        <v>509.945048</v>
       </c>
       <c r="H34">
-        <v>576.6369169999999</v>
+        <v>1529.835144</v>
       </c>
       <c r="I34">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="J34">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>2.451737666666667</v>
+        <v>4.305489000000001</v>
       </c>
       <c r="N34">
-        <v>7.355213</v>
+        <v>12.916467</v>
       </c>
       <c r="O34">
-        <v>0.08864587138537494</v>
+        <v>0.1623509840029479</v>
       </c>
       <c r="P34">
-        <v>0.08864587138537493</v>
+        <v>0.1623509840029479</v>
       </c>
       <c r="Q34">
-        <v>471.2541497998134</v>
+        <v>2195.562794768472</v>
       </c>
       <c r="R34">
-        <v>4241.287348198321</v>
+        <v>19760.06515291625</v>
       </c>
       <c r="S34">
-        <v>0.01488647037670262</v>
+        <v>0.03860822560042432</v>
       </c>
       <c r="T34">
-        <v>0.01488647037670262</v>
+        <v>0.03860822560042432</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>192.2123056666667</v>
+        <v>509.945048</v>
       </c>
       <c r="H35">
-        <v>576.6369169999999</v>
+        <v>1529.835144</v>
       </c>
       <c r="I35">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="J35">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>9.939698</v>
+        <v>6.304742</v>
       </c>
       <c r="N35">
-        <v>29.819094</v>
+        <v>18.914226</v>
       </c>
       <c r="O35">
-        <v>0.3593831438399412</v>
+        <v>0.2377386326116995</v>
       </c>
       <c r="P35">
-        <v>0.3593831438399412</v>
+        <v>0.2377386326116995</v>
       </c>
       <c r="Q35">
-        <v>1910.532270210355</v>
+        <v>3215.071961817616</v>
       </c>
       <c r="R35">
-        <v>17194.79043189319</v>
+        <v>28935.64765635855</v>
       </c>
       <c r="S35">
-        <v>0.06035189728579049</v>
+        <v>0.05653594783042539</v>
       </c>
       <c r="T35">
-        <v>0.06035189728579048</v>
+        <v>0.05653594783042539</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>192.2123056666667</v>
+        <v>509.945048</v>
       </c>
       <c r="H36">
-        <v>576.6369169999999</v>
+        <v>1529.835144</v>
       </c>
       <c r="I36">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="J36">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.8153446666666667</v>
+        <v>0.5130036666666666</v>
       </c>
       <c r="N36">
-        <v>2.446034</v>
+        <v>1.539011</v>
       </c>
       <c r="O36">
-        <v>0.02947988254973095</v>
+        <v>0.01934429517308106</v>
       </c>
       <c r="P36">
-        <v>0.02947988254973094</v>
+        <v>0.01934429517308106</v>
       </c>
       <c r="Q36">
-        <v>156.7192782930198</v>
+        <v>261.6036794225093</v>
       </c>
       <c r="R36">
-        <v>1410.473504637178</v>
+        <v>2354.433114802584</v>
       </c>
       <c r="S36">
-        <v>0.004950612943691424</v>
+        <v>0.004600211798592805</v>
       </c>
       <c r="T36">
-        <v>0.004950612943691422</v>
+        <v>0.004600211798592806</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,46 +2713,46 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>192.2123056666667</v>
+        <v>509.945048</v>
       </c>
       <c r="H37">
-        <v>576.6369169999999</v>
+        <v>1529.835144</v>
       </c>
       <c r="I37">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="J37">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="K37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L37">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M37">
-        <v>0.905288</v>
+        <v>1.818161</v>
       </c>
       <c r="N37">
-        <v>2.715864</v>
+        <v>5.454483</v>
       </c>
       <c r="O37">
-        <v>0.0327319046836808</v>
+        <v>0.06855904809553193</v>
       </c>
       <c r="P37">
-        <v>0.0327319046836808</v>
+        <v>0.06855904809553193</v>
       </c>
       <c r="Q37">
-        <v>174.0074937723653</v>
+        <v>927.1621984167281</v>
       </c>
       <c r="R37">
-        <v>1566.067443951288</v>
+        <v>8344.459785750552</v>
       </c>
       <c r="S37">
-        <v>0.005496731227654874</v>
+        <v>0.016303832170026</v>
       </c>
       <c r="T37">
-        <v>0.005496731227654874</v>
+        <v>0.016303832170026</v>
       </c>
     </row>
   </sheetData>
